--- a/Zeus/data/TSP/Results/bier127.xlsx_short.xlsx
+++ b/Zeus/data/TSP/Results/bier127.xlsx_short.xlsx
@@ -142,7 +142,7 @@
         <v>5</v>
       </c>
       <c r="J1" t="n">
-        <v>-1.512075131E9</v>
+        <v>-1.512079412E9</v>
       </c>
       <c r="K1" t="s">
         <v>6</v>
@@ -159,7 +159,7 @@
         <v>8</v>
       </c>
       <c r="D2" t="n">
-        <v>124105.359375</v>
+        <v>122640.0234375</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
@@ -171,7 +171,7 @@
         <v>10</v>
       </c>
       <c r="H2" t="n">
-        <v>124105.36</v>
+        <v>122640.02</v>
       </c>
     </row>
     <row r="3">
@@ -237,109 +237,109 @@
         <v>118.0</v>
       </c>
       <c r="N5" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>53.0</v>
+      </c>
+      <c r="P5" t="n">
         <v>49.0</v>
       </c>
-      <c r="O5" t="n">
+      <c r="Q5" t="n">
         <v>47.0</v>
       </c>
-      <c r="P5" t="n">
-        <v>53.0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>48.0</v>
-      </c>
       <c r="R5" t="n">
-        <v>54.0</v>
+        <v>56.0</v>
       </c>
       <c r="S5" t="n">
         <v>57.0</v>
       </c>
       <c r="T5" t="n">
-        <v>51.0</v>
+        <v>54.0</v>
       </c>
       <c r="U5" t="n">
-        <v>121.0</v>
+        <v>45.0</v>
       </c>
       <c r="V5" t="n">
-        <v>56.0</v>
+        <v>103.0</v>
       </c>
       <c r="W5" t="n">
-        <v>5.0</v>
+        <v>44.0</v>
       </c>
       <c r="X5" t="n">
-        <v>52.0</v>
+        <v>40.0</v>
       </c>
       <c r="Y5" t="n">
-        <v>124.0</v>
+        <v>35.0</v>
       </c>
       <c r="Z5" t="n">
-        <v>55.0</v>
+        <v>37.0</v>
       </c>
       <c r="AA5" t="n">
-        <v>66.0</v>
+        <v>36.0</v>
       </c>
       <c r="AB5" t="n">
-        <v>113.0</v>
+        <v>43.0</v>
       </c>
       <c r="AC5" t="n">
-        <v>65.0</v>
+        <v>34.0</v>
       </c>
       <c r="AD5" t="n">
-        <v>99.0</v>
+        <v>42.0</v>
       </c>
       <c r="AE5" t="n">
-        <v>92.0</v>
+        <v>39.0</v>
       </c>
       <c r="AF5" t="n">
-        <v>89.0</v>
+        <v>38.0</v>
       </c>
       <c r="AG5" t="n">
-        <v>125.0</v>
+        <v>28.0</v>
       </c>
       <c r="AH5" t="n">
-        <v>64.0</v>
+        <v>122.0</v>
       </c>
       <c r="AI5" t="n">
-        <v>58.0</v>
+        <v>32.0</v>
       </c>
       <c r="AJ5" t="n">
-        <v>100.0</v>
+        <v>29.0</v>
       </c>
       <c r="AK5" t="n">
-        <v>115.0</v>
+        <v>33.0</v>
       </c>
       <c r="AL5" t="n">
-        <v>50.0</v>
+        <v>25.0</v>
       </c>
       <c r="AM5" t="n">
-        <v>13.0</v>
+        <v>26.0</v>
       </c>
       <c r="AN5" t="n">
-        <v>7.0</v>
+        <v>27.0</v>
       </c>
       <c r="AO5" t="n">
-        <v>120.0</v>
+        <v>31.0</v>
       </c>
       <c r="AP5" t="n">
-        <v>10.0</v>
+        <v>12.0</v>
       </c>
       <c r="AQ5" t="n">
-        <v>3.0</v>
+        <v>30.0</v>
       </c>
       <c r="AR5" t="n">
-        <v>11.0</v>
+        <v>41.0</v>
       </c>
       <c r="AS5" t="n">
-        <v>9.0</v>
+        <v>14.0</v>
       </c>
       <c r="AT5" t="n">
-        <v>24.0</v>
+        <v>16.0</v>
       </c>
       <c r="AU5" t="n">
-        <v>23.0</v>
+        <v>1.0</v>
       </c>
       <c r="AV5" t="n">
-        <v>4.0</v>
+        <v>15.0</v>
       </c>
       <c r="AW5" t="n">
         <v>20.0</v>
@@ -360,226 +360,226 @@
         <v>105.0</v>
       </c>
       <c r="BC5" t="n">
-        <v>15.0</v>
+        <v>7.0</v>
       </c>
       <c r="BD5" t="n">
-        <v>12.0</v>
+        <v>120.0</v>
       </c>
       <c r="BE5" t="n">
-        <v>31.0</v>
+        <v>13.0</v>
       </c>
       <c r="BF5" t="n">
-        <v>27.0</v>
+        <v>115.0</v>
       </c>
       <c r="BG5" t="n">
-        <v>30.0</v>
+        <v>50.0</v>
       </c>
       <c r="BH5" t="n">
-        <v>41.0</v>
+        <v>2.0</v>
       </c>
       <c r="BI5" t="n">
-        <v>14.0</v>
+        <v>51.0</v>
       </c>
       <c r="BJ5" t="n">
-        <v>16.0</v>
+        <v>121.0</v>
       </c>
       <c r="BK5" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="BL5" t="n">
-        <v>2.0</v>
+        <v>52.0</v>
       </c>
       <c r="BM5" t="n">
-        <v>37.0</v>
+        <v>124.0</v>
       </c>
       <c r="BN5" t="n">
-        <v>36.0</v>
+        <v>55.0</v>
       </c>
       <c r="BO5" t="n">
-        <v>35.0</v>
+        <v>66.0</v>
       </c>
       <c r="BP5" t="n">
-        <v>44.0</v>
+        <v>100.0</v>
       </c>
       <c r="BQ5" t="n">
-        <v>45.0</v>
+        <v>10.0</v>
       </c>
       <c r="BR5" t="n">
-        <v>103.0</v>
+        <v>3.0</v>
       </c>
       <c r="BS5" t="n">
-        <v>40.0</v>
+        <v>90.0</v>
       </c>
       <c r="BT5" t="n">
-        <v>43.0</v>
+        <v>61.0</v>
       </c>
       <c r="BU5" t="n">
-        <v>34.0</v>
+        <v>91.0</v>
       </c>
       <c r="BV5" t="n">
-        <v>42.0</v>
+        <v>58.0</v>
       </c>
       <c r="BW5" t="n">
-        <v>39.0</v>
+        <v>64.0</v>
       </c>
       <c r="BX5" t="n">
-        <v>38.0</v>
+        <v>113.0</v>
       </c>
       <c r="BY5" t="n">
-        <v>26.0</v>
+        <v>65.0</v>
       </c>
       <c r="BZ5" t="n">
-        <v>25.0</v>
+        <v>99.0</v>
       </c>
       <c r="CA5" t="n">
-        <v>28.0</v>
+        <v>92.0</v>
       </c>
       <c r="CB5" t="n">
-        <v>122.0</v>
+        <v>89.0</v>
       </c>
       <c r="CC5" t="n">
-        <v>33.0</v>
+        <v>125.0</v>
       </c>
       <c r="CD5" t="n">
-        <v>29.0</v>
+        <v>104.0</v>
       </c>
       <c r="CE5" t="n">
-        <v>32.0</v>
+        <v>59.0</v>
       </c>
       <c r="CF5" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="CG5" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="CH5" t="n">
+        <v>116.0</v>
+      </c>
+      <c r="CI5" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="CJ5" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="CK5" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="CL5" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="CM5" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="CN5" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="CO5" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="CP5" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="CQ5" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="CR5" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="CS5" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="CT5" t="n">
+        <v>67.0</v>
+      </c>
+      <c r="CU5" t="n">
+        <v>73.0</v>
+      </c>
+      <c r="CV5" t="n">
+        <v>74.0</v>
+      </c>
+      <c r="CW5" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="CX5" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="CY5" t="n">
+        <v>79.0</v>
+      </c>
+      <c r="CZ5" t="n">
         <v>80.0</v>
       </c>
-      <c r="CG5" t="n">
-        <v>79.0</v>
-      </c>
-      <c r="CH5" t="n">
+      <c r="DA5" t="n">
         <v>78.0</v>
       </c>
-      <c r="CI5" t="n">
+      <c r="DB5" t="n">
         <v>117.0</v>
       </c>
-      <c r="CJ5" t="n">
+      <c r="DC5" t="n">
+        <v>84.0</v>
+      </c>
+      <c r="DD5" t="n">
+        <v>81.0</v>
+      </c>
+      <c r="DE5" t="n">
+        <v>126.0</v>
+      </c>
+      <c r="DF5" t="n">
+        <v>82.0</v>
+      </c>
+      <c r="DG5" t="n">
+        <v>83.0</v>
+      </c>
+      <c r="DH5" t="n">
         <v>76.0</v>
       </c>
-      <c r="CK5" t="n">
+      <c r="DI5" t="n">
         <v>75.0</v>
       </c>
-      <c r="CL5" t="n">
-        <v>84.0</v>
-      </c>
-      <c r="CM5" t="n">
-        <v>81.0</v>
-      </c>
-      <c r="CN5" t="n">
-        <v>126.0</v>
-      </c>
-      <c r="CO5" t="n">
-        <v>82.0</v>
-      </c>
-      <c r="CP5" t="n">
-        <v>83.0</v>
-      </c>
-      <c r="CQ5" t="n">
+      <c r="DJ5" t="n">
+        <v>69.0</v>
+      </c>
+      <c r="DK5" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="DL5" t="n">
+        <v>68.0</v>
+      </c>
+      <c r="DM5" t="n">
+        <v>71.0</v>
+      </c>
+      <c r="DN5" t="n">
+        <v>110.0</v>
+      </c>
+      <c r="DO5" t="n">
+        <v>109.0</v>
+      </c>
+      <c r="DP5" t="n">
+        <v>85.0</v>
+      </c>
+      <c r="DQ5" t="n">
+        <v>86.0</v>
+      </c>
+      <c r="DR5" t="n">
+        <v>87.0</v>
+      </c>
+      <c r="DS5" t="n">
+        <v>88.0</v>
+      </c>
+      <c r="DT5" t="n">
+        <v>96.0</v>
+      </c>
+      <c r="DU5" t="n">
+        <v>119.0</v>
+      </c>
+      <c r="DV5" t="n">
+        <v>63.0</v>
+      </c>
+      <c r="DW5" t="n">
+        <v>102.0</v>
+      </c>
+      <c r="DX5" t="n">
         <v>101.0</v>
-      </c>
-      <c r="CR5" t="n">
-        <v>102.0</v>
-      </c>
-      <c r="CS5" t="n">
-        <v>63.0</v>
-      </c>
-      <c r="CT5" t="n">
-        <v>119.0</v>
-      </c>
-      <c r="CU5" t="n">
-        <v>96.0</v>
-      </c>
-      <c r="CV5" t="n">
-        <v>109.0</v>
-      </c>
-      <c r="CW5" t="n">
-        <v>88.0</v>
-      </c>
-      <c r="CX5" t="n">
-        <v>87.0</v>
-      </c>
-      <c r="CY5" t="n">
-        <v>86.0</v>
-      </c>
-      <c r="CZ5" t="n">
-        <v>85.0</v>
-      </c>
-      <c r="DA5" t="n">
-        <v>110.0</v>
-      </c>
-      <c r="DB5" t="n">
-        <v>71.0</v>
-      </c>
-      <c r="DC5" t="n">
-        <v>70.0</v>
-      </c>
-      <c r="DD5" t="n">
-        <v>69.0</v>
-      </c>
-      <c r="DE5" t="n">
-        <v>68.0</v>
-      </c>
-      <c r="DF5" t="n">
-        <v>73.0</v>
-      </c>
-      <c r="DG5" t="n">
-        <v>74.0</v>
-      </c>
-      <c r="DH5" t="n">
-        <v>77.0</v>
-      </c>
-      <c r="DI5" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="DJ5" t="n">
-        <v>21.0</v>
-      </c>
-      <c r="DK5" t="n">
-        <v>17.0</v>
-      </c>
-      <c r="DL5" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="DM5" t="n">
-        <v>19.0</v>
-      </c>
-      <c r="DN5" t="n">
-        <v>72.0</v>
-      </c>
-      <c r="DO5" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="DP5" t="n">
-        <v>67.0</v>
-      </c>
-      <c r="DQ5" t="n">
-        <v>116.0</v>
-      </c>
-      <c r="DR5" t="n">
-        <v>90.0</v>
-      </c>
-      <c r="DS5" t="n">
-        <v>60.0</v>
-      </c>
-      <c r="DT5" t="n">
-        <v>61.0</v>
-      </c>
-      <c r="DU5" t="n">
-        <v>91.0</v>
-      </c>
-      <c r="DV5" t="n">
-        <v>62.0</v>
-      </c>
-      <c r="DW5" t="n">
-        <v>59.0</v>
-      </c>
-      <c r="DX5" t="n">
-        <v>104.0</v>
       </c>
     </row>
     <row r="7">

--- a/Zeus/data/TSP/Results/bier127.xlsx_short.xlsx
+++ b/Zeus/data/TSP/Results/bier127.xlsx_short.xlsx
@@ -142,7 +142,7 @@
         <v>5</v>
       </c>
       <c r="J1" t="n">
-        <v>-1.51208051E9</v>
+        <v>-1.512081046E9</v>
       </c>
       <c r="K1" t="s">
         <v>6</v>
@@ -159,19 +159,19 @@
         <v>8</v>
       </c>
       <c r="D2" t="n">
-        <v>124590.0546875</v>
+        <v>145186.859375</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0</v>
+        <v>84692.33463541667</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
       </c>
       <c r="H2" t="n">
-        <v>124590.05</v>
+        <v>145186.86</v>
       </c>
     </row>
     <row r="3">
@@ -201,385 +201,385 @@
         <v>14</v>
       </c>
       <c r="B5" t="n">
-        <v>98.0</v>
+        <v>101.0</v>
       </c>
       <c r="C5" t="n">
-        <v>97.0</v>
+        <v>102.0</v>
       </c>
       <c r="D5" t="n">
-        <v>123.0</v>
+        <v>63.0</v>
       </c>
       <c r="E5" t="n">
-        <v>95.0</v>
+        <v>119.0</v>
       </c>
       <c r="F5" t="n">
-        <v>93.0</v>
+        <v>96.0</v>
       </c>
       <c r="G5" t="n">
-        <v>127.0</v>
+        <v>109.0</v>
       </c>
       <c r="H5" t="n">
-        <v>107.0</v>
+        <v>88.0</v>
       </c>
       <c r="I5" t="n">
-        <v>111.0</v>
+        <v>87.0</v>
       </c>
       <c r="J5" t="n">
-        <v>112.0</v>
+        <v>86.0</v>
       </c>
       <c r="K5" t="n">
-        <v>94.0</v>
+        <v>85.0</v>
       </c>
       <c r="L5" t="n">
-        <v>46.0</v>
+        <v>110.0</v>
       </c>
       <c r="M5" t="n">
-        <v>118.0</v>
+        <v>82.0</v>
       </c>
       <c r="N5" t="n">
-        <v>48.0</v>
+        <v>83.0</v>
       </c>
       <c r="O5" t="n">
-        <v>53.0</v>
+        <v>126.0</v>
       </c>
       <c r="P5" t="n">
-        <v>49.0</v>
+        <v>81.0</v>
       </c>
       <c r="Q5" t="n">
-        <v>47.0</v>
+        <v>84.0</v>
       </c>
       <c r="R5" t="n">
-        <v>55.0</v>
+        <v>117.0</v>
       </c>
       <c r="S5" t="n">
-        <v>66.0</v>
+        <v>75.0</v>
       </c>
       <c r="T5" t="n">
-        <v>124.0</v>
+        <v>69.0</v>
       </c>
       <c r="U5" t="n">
-        <v>52.0</v>
+        <v>70.0</v>
       </c>
       <c r="V5" t="n">
-        <v>56.0</v>
+        <v>71.0</v>
       </c>
       <c r="W5" t="n">
-        <v>121.0</v>
+        <v>68.0</v>
       </c>
       <c r="X5" t="n">
-        <v>5.0</v>
+        <v>76.0</v>
       </c>
       <c r="Y5" t="n">
-        <v>115.0</v>
+        <v>78.0</v>
       </c>
       <c r="Z5" t="n">
-        <v>13.0</v>
+        <v>77.0</v>
       </c>
       <c r="AA5" t="n">
-        <v>50.0</v>
+        <v>74.0</v>
       </c>
       <c r="AB5" t="n">
-        <v>57.0</v>
+        <v>73.0</v>
       </c>
       <c r="AC5" t="n">
-        <v>54.0</v>
+        <v>67.0</v>
       </c>
       <c r="AD5" t="n">
-        <v>45.0</v>
+        <v>18.0</v>
       </c>
       <c r="AE5" t="n">
-        <v>103.0</v>
+        <v>72.0</v>
       </c>
       <c r="AF5" t="n">
-        <v>44.0</v>
+        <v>8.0</v>
       </c>
       <c r="AG5" t="n">
-        <v>51.0</v>
+        <v>21.0</v>
       </c>
       <c r="AH5" t="n">
-        <v>2.0</v>
+        <v>17.0</v>
       </c>
       <c r="AI5" t="n">
-        <v>16.0</v>
+        <v>22.0</v>
       </c>
       <c r="AJ5" t="n">
-        <v>1.0</v>
+        <v>19.0</v>
       </c>
       <c r="AK5" t="n">
-        <v>7.0</v>
+        <v>23.0</v>
       </c>
       <c r="AL5" t="n">
-        <v>120.0</v>
+        <v>9.0</v>
       </c>
       <c r="AM5" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="AN5" t="n">
-        <v>105.0</v>
+        <v>24.0</v>
       </c>
       <c r="AO5" t="n">
-        <v>114.0</v>
+        <v>4.0</v>
       </c>
       <c r="AP5" t="n">
-        <v>15.0</v>
+        <v>20.0</v>
       </c>
       <c r="AQ5" t="n">
-        <v>106.0</v>
+        <v>108.0</v>
       </c>
       <c r="AR5" t="n">
         <v>6.0</v>
       </c>
       <c r="AS5" t="n">
-        <v>108.0</v>
+        <v>106.0</v>
       </c>
       <c r="AT5" t="n">
-        <v>20.0</v>
+        <v>114.0</v>
       </c>
       <c r="AU5" t="n">
-        <v>17.0</v>
+        <v>105.0</v>
       </c>
       <c r="AV5" t="n">
-        <v>21.0</v>
+        <v>15.0</v>
       </c>
       <c r="AW5" t="n">
-        <v>77.0</v>
+        <v>80.0</v>
       </c>
       <c r="AX5" t="n">
-        <v>18.0</v>
+        <v>79.0</v>
       </c>
       <c r="AY5" t="n">
-        <v>72.0</v>
+        <v>31.0</v>
       </c>
       <c r="AZ5" t="n">
-        <v>8.0</v>
+        <v>27.0</v>
       </c>
       <c r="BA5" t="n">
-        <v>19.0</v>
+        <v>12.0</v>
       </c>
       <c r="BB5" t="n">
-        <v>22.0</v>
+        <v>14.0</v>
       </c>
       <c r="BC5" t="n">
-        <v>4.0</v>
+        <v>41.0</v>
       </c>
       <c r="BD5" t="n">
-        <v>23.0</v>
+        <v>50.0</v>
       </c>
       <c r="BE5" t="n">
-        <v>24.0</v>
+        <v>115.0</v>
       </c>
       <c r="BF5" t="n">
-        <v>9.0</v>
+        <v>13.0</v>
       </c>
       <c r="BG5" t="n">
-        <v>11.0</v>
+        <v>10.0</v>
       </c>
       <c r="BH5" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="BI5" t="n">
+        <v>113.0</v>
+      </c>
+      <c r="BJ5" t="n">
+        <v>65.0</v>
+      </c>
+      <c r="BK5" t="n">
+        <v>99.0</v>
+      </c>
+      <c r="BL5" t="n">
+        <v>89.0</v>
+      </c>
+      <c r="BM5" t="n">
+        <v>92.0</v>
+      </c>
+      <c r="BN5" t="n">
+        <v>125.0</v>
+      </c>
+      <c r="BO5" t="n">
+        <v>104.0</v>
+      </c>
+      <c r="BP5" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="BQ5" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="BR5" t="n">
+        <v>91.0</v>
+      </c>
+      <c r="BS5" t="n">
+        <v>61.0</v>
+      </c>
+      <c r="BT5" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="BU5" t="n">
+        <v>59.0</v>
+      </c>
+      <c r="BV5" t="n">
+        <v>90.0</v>
+      </c>
+      <c r="BW5" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="BX5" t="n">
+        <v>116.0</v>
+      </c>
+      <c r="BY5" t="n">
         <v>3.0</v>
       </c>
-      <c r="BI5" t="n">
-        <v>90.0</v>
-      </c>
-      <c r="BJ5" t="n">
-        <v>116.0</v>
-      </c>
-      <c r="BK5" t="n">
-        <v>62.0</v>
-      </c>
-      <c r="BL5" t="n">
-        <v>59.0</v>
-      </c>
-      <c r="BM5" t="n">
-        <v>104.0</v>
-      </c>
-      <c r="BN5" t="n">
-        <v>99.0</v>
-      </c>
-      <c r="BO5" t="n">
-        <v>92.0</v>
-      </c>
-      <c r="BP5" t="n">
-        <v>89.0</v>
-      </c>
-      <c r="BQ5" t="n">
-        <v>125.0</v>
-      </c>
-      <c r="BR5" t="n">
-        <v>65.0</v>
-      </c>
-      <c r="BS5" t="n">
-        <v>113.0</v>
-      </c>
-      <c r="BT5" t="n">
-        <v>64.0</v>
-      </c>
-      <c r="BU5" t="n">
-        <v>58.0</v>
-      </c>
-      <c r="BV5" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="BW5" t="n">
-        <v>91.0</v>
-      </c>
-      <c r="BX5" t="n">
-        <v>61.0</v>
-      </c>
-      <c r="BY5" t="n">
-        <v>60.0</v>
-      </c>
       <c r="BZ5" t="n">
-        <v>67.0</v>
+        <v>120.0</v>
       </c>
       <c r="CA5" t="n">
-        <v>73.0</v>
+        <v>7.0</v>
       </c>
       <c r="CB5" t="n">
-        <v>74.0</v>
+        <v>1.0</v>
       </c>
       <c r="CC5" t="n">
-        <v>68.0</v>
+        <v>16.0</v>
       </c>
       <c r="CD5" t="n">
-        <v>76.0</v>
+        <v>2.0</v>
       </c>
       <c r="CE5" t="n">
-        <v>75.0</v>
+        <v>51.0</v>
       </c>
       <c r="CF5" t="n">
-        <v>69.0</v>
+        <v>37.0</v>
       </c>
       <c r="CG5" t="n">
-        <v>70.0</v>
+        <v>35.0</v>
       </c>
       <c r="CH5" t="n">
-        <v>71.0</v>
+        <v>36.0</v>
       </c>
       <c r="CI5" t="n">
-        <v>96.0</v>
+        <v>30.0</v>
       </c>
       <c r="CJ5" t="n">
-        <v>109.0</v>
+        <v>32.0</v>
       </c>
       <c r="CK5" t="n">
-        <v>110.0</v>
+        <v>29.0</v>
       </c>
       <c r="CL5" t="n">
-        <v>85.0</v>
+        <v>25.0</v>
       </c>
       <c r="CM5" t="n">
-        <v>86.0</v>
+        <v>33.0</v>
       </c>
       <c r="CN5" t="n">
-        <v>87.0</v>
+        <v>122.0</v>
       </c>
       <c r="CO5" t="n">
-        <v>88.0</v>
+        <v>28.0</v>
       </c>
       <c r="CP5" t="n">
-        <v>119.0</v>
+        <v>26.0</v>
       </c>
       <c r="CQ5" t="n">
-        <v>63.0</v>
+        <v>38.0</v>
       </c>
       <c r="CR5" t="n">
-        <v>102.0</v>
+        <v>39.0</v>
       </c>
       <c r="CS5" t="n">
-        <v>101.0</v>
+        <v>34.0</v>
       </c>
       <c r="CT5" t="n">
-        <v>83.0</v>
+        <v>43.0</v>
       </c>
       <c r="CU5" t="n">
-        <v>82.0</v>
+        <v>40.0</v>
       </c>
       <c r="CV5" t="n">
-        <v>126.0</v>
+        <v>42.0</v>
       </c>
       <c r="CW5" t="n">
-        <v>81.0</v>
+        <v>44.0</v>
       </c>
       <c r="CX5" t="n">
-        <v>84.0</v>
+        <v>57.0</v>
       </c>
       <c r="CY5" t="n">
-        <v>117.0</v>
+        <v>121.0</v>
       </c>
       <c r="CZ5" t="n">
-        <v>78.0</v>
+        <v>5.0</v>
       </c>
       <c r="DA5" t="n">
-        <v>79.0</v>
+        <v>52.0</v>
       </c>
       <c r="DB5" t="n">
-        <v>80.0</v>
+        <v>124.0</v>
       </c>
       <c r="DC5" t="n">
-        <v>31.0</v>
+        <v>66.0</v>
       </c>
       <c r="DD5" t="n">
-        <v>27.0</v>
+        <v>55.0</v>
       </c>
       <c r="DE5" t="n">
-        <v>30.0</v>
+        <v>56.0</v>
       </c>
       <c r="DF5" t="n">
-        <v>12.0</v>
+        <v>54.0</v>
       </c>
       <c r="DG5" t="n">
-        <v>14.0</v>
+        <v>47.0</v>
       </c>
       <c r="DH5" t="n">
-        <v>41.0</v>
+        <v>53.0</v>
       </c>
       <c r="DI5" t="n">
-        <v>36.0</v>
+        <v>49.0</v>
       </c>
       <c r="DJ5" t="n">
-        <v>37.0</v>
+        <v>118.0</v>
       </c>
       <c r="DK5" t="n">
-        <v>35.0</v>
+        <v>48.0</v>
       </c>
       <c r="DL5" t="n">
-        <v>40.0</v>
+        <v>46.0</v>
       </c>
       <c r="DM5" t="n">
-        <v>43.0</v>
+        <v>94.0</v>
       </c>
       <c r="DN5" t="n">
-        <v>34.0</v>
+        <v>45.0</v>
       </c>
       <c r="DO5" t="n">
-        <v>39.0</v>
+        <v>103.0</v>
       </c>
       <c r="DP5" t="n">
-        <v>42.0</v>
+        <v>95.0</v>
       </c>
       <c r="DQ5" t="n">
-        <v>38.0</v>
+        <v>93.0</v>
       </c>
       <c r="DR5" t="n">
-        <v>26.0</v>
+        <v>112.0</v>
       </c>
       <c r="DS5" t="n">
-        <v>25.0</v>
+        <v>111.0</v>
       </c>
       <c r="DT5" t="n">
-        <v>33.0</v>
+        <v>107.0</v>
       </c>
       <c r="DU5" t="n">
-        <v>122.0</v>
+        <v>127.0</v>
       </c>
       <c r="DV5" t="n">
-        <v>28.0</v>
+        <v>123.0</v>
       </c>
       <c r="DW5" t="n">
-        <v>29.0</v>
+        <v>97.0</v>
       </c>
       <c r="DX5" t="n">
-        <v>32.0</v>
+        <v>98.0</v>
       </c>
     </row>
     <row r="7">
